--- a/templates/retention/SaaS Funnel Simulator.xlsx
+++ b/templates/retention/SaaS Funnel Simulator.xlsx
@@ -50,7 +50,7 @@
     <t>SaaS Growth Strategy Hub</t>
   </si>
   <si>
-    <t>https://www.thoughtlytics.com/newsletter/the-definitive-guide-to-saas-funnels</t>
+    <t>https://www.thoughtlytics.com/blog/saas-marketing-funnel-simulator-template</t>
   </si>
   <si>
     <t>License</t>
@@ -640,11 +640,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1848693016"/>
-        <c:axId val="1579729091"/>
+        <c:axId val="1798846348"/>
+        <c:axId val="1649271860"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1848693016"/>
+        <c:axId val="1798846348"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -696,10 +696,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1579729091"/>
+        <c:crossAx val="1649271860"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1579729091"/>
+        <c:axId val="1649271860"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -765,7 +765,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1848693016"/>
+        <c:crossAx val="1798846348"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -29190,8 +29190,8 @@
       </c>
       <c r="I2" s="26">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(C2&lt;&gt;0, (H2 * (C2 / INDEX($C$2:$C$11, MAX(FILTER(ROW($C$2:$C$11)-ROW($C$2)+1, $C$2:$C$11&lt;&gt;0))))), """")
-"),25.000000000000004)</f>
-        <v>25</v>
+"),12.500000000000002)</f>
+        <v>12.5</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="28"/>
@@ -29232,16 +29232,16 @@
         <v>0.2</v>
       </c>
       <c r="G3" s="25">
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="H3" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="I3" s="26">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(C3&lt;&gt;0, (H3 * (C3 / INDEX($C$2:$C$11, MAX(FILTER(ROW($C$2:$C$11)-ROW($C$2)+1, $C$2:$C$11&lt;&gt;0))))), """")
-"),0.0)</f>
-        <v>0</v>
+"),4.166666666666667)</f>
+        <v>4.166666667</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
@@ -29290,8 +29290,8 @@
       </c>
       <c r="I4" s="26">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(C4&lt;&gt;0, (H4 * (C4 / INDEX($C$2:$C$11, MAX(FILTER(ROW($C$2:$C$11)-ROW($C$2)+1, $C$2:$C$11&lt;&gt;0))))), """")
-"),83.33333333333333)</f>
-        <v>83.33333333</v>
+"),41.666666666666664)</f>
+        <v>41.66666667</v>
       </c>
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
@@ -29332,16 +29332,16 @@
         <v>0.1666666667</v>
       </c>
       <c r="G5" s="25">
-        <v>0.0</v>
+        <v>400.0</v>
       </c>
       <c r="H5" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="I5" s="26">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(C5&lt;&gt;0, (H5 * (C5 / INDEX($C$2:$C$11, MAX(FILTER(ROW($C$2:$C$11)-ROW($C$2)+1, $C$2:$C$11&lt;&gt;0))))), """")
-"),0.0)</f>
-        <v>0</v>
+"),8.333333333333334)</f>
+        <v>8.333333333</v>
       </c>
       <c r="J5" s="28"/>
       <c r="K5" s="28"/>
@@ -29390,8 +29390,8 @@
       </c>
       <c r="I6" s="26">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(C6&lt;&gt;0, (H6 * (C6 / INDEX($C$2:$C$11, MAX(FILTER(ROW($C$2:$C$11)-ROW($C$2)+1, $C$2:$C$11&lt;&gt;0))))), """")
-"),1666.6666666666667)</f>
-        <v>1666.666667</v>
+"),833.3333333333334)</f>
+        <v>833.3333333</v>
       </c>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
@@ -29417,31 +29417,31 @@
         <v>37</v>
       </c>
       <c r="C7" s="22">
-        <v>24.0</v>
+        <v>48.0</v>
       </c>
       <c r="D7" s="23">
         <f t="shared" si="1"/>
-        <v>24988</v>
+        <v>24976</v>
       </c>
       <c r="E7" s="24">
         <f t="shared" si="3"/>
-        <v>0.00048</v>
+        <v>0.00096</v>
       </c>
       <c r="F7" s="24">
         <f t="shared" si="4"/>
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="G7" s="25">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="H7" s="26">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.041666667</v>
       </c>
       <c r="I7" s="26">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(C7&lt;&gt;0, (H7 * (C7 / INDEX($C$2:$C$11, MAX(FILTER(ROW($C$2:$C$11)-ROW($C$2)+1, $C$2:$C$11&lt;&gt;0))))), """")
-"),0.0)</f>
-        <v>0</v>
+"),1.0416666666666667)</f>
+        <v>1.041666667</v>
       </c>
       <c r="J7" s="28"/>
       <c r="K7" s="28"/>
@@ -29644,12 +29644,12 @@
       <c r="F12" s="23"/>
       <c r="G12" s="30">
         <f>SUM(G2:G11)</f>
-        <v>42600</v>
+        <v>43250</v>
       </c>
       <c r="H12" s="31"/>
       <c r="I12" s="30">
         <f>SUM(I2:I11)</f>
-        <v>1775</v>
+        <v>901.0416667</v>
       </c>
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
